--- a/dfs/df_sum.xlsx
+++ b/dfs/df_sum.xlsx
@@ -21707,31 +21707,81 @@
           <t>Udinese</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr"/>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="inlineStr"/>
-      <c r="T242" t="inlineStr"/>
-      <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr"/>
-      <c r="W242" t="inlineStr"/>
-      <c r="X242" t="inlineStr"/>
-      <c r="Y242" t="inlineStr"/>
-      <c r="Z242" t="inlineStr"/>
-      <c r="AA242" t="inlineStr"/>
-      <c r="AB242" t="inlineStr"/>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>57</v>
+      </c>
+      <c r="G242" t="n">
+        <v>508</v>
+      </c>
+      <c r="H242" t="n">
+        <v>384</v>
+      </c>
+      <c r="I242" t="n">
+        <v>16</v>
+      </c>
+      <c r="J242" t="n">
+        <v>5</v>
+      </c>
+      <c r="K242" t="n">
+        <v>11</v>
+      </c>
+      <c r="L242" t="n">
+        <v>31</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>21</v>
+      </c>
+      <c r="O242" t="n">
+        <v>2</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>2</v>
+      </c>
+      <c r="R242" t="n">
+        <v>12</v>
+      </c>
+      <c r="S242" t="n">
+        <v>3</v>
+      </c>
+      <c r="T242" t="n">
+        <v>14</v>
+      </c>
+      <c r="U242" t="n">
+        <v>647</v>
+      </c>
+      <c r="V242" t="n">
+        <v>16</v>
+      </c>
+      <c r="W242" t="n">
+        <v>7</v>
+      </c>
+      <c r="X242" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -21745,31 +21795,81 @@
           <t>Lecce</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="inlineStr"/>
-      <c r="T243" t="inlineStr"/>
-      <c r="U243" t="inlineStr"/>
-      <c r="V243" t="inlineStr"/>
-      <c r="W243" t="inlineStr"/>
-      <c r="X243" t="inlineStr"/>
-      <c r="Y243" t="inlineStr"/>
-      <c r="Z243" t="inlineStr"/>
-      <c r="AA243" t="inlineStr"/>
-      <c r="AB243" t="inlineStr"/>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>43</v>
+      </c>
+      <c r="G243" t="n">
+        <v>384</v>
+      </c>
+      <c r="H243" t="n">
+        <v>257</v>
+      </c>
+      <c r="I243" t="n">
+        <v>9</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>8</v>
+      </c>
+      <c r="L243" t="n">
+        <v>11</v>
+      </c>
+      <c r="M243" t="n">
+        <v>5</v>
+      </c>
+      <c r="N243" t="n">
+        <v>21</v>
+      </c>
+      <c r="O243" t="n">
+        <v>3</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>3</v>
+      </c>
+      <c r="R243" t="n">
+        <v>18</v>
+      </c>
+      <c r="S243" t="n">
+        <v>2</v>
+      </c>
+      <c r="T243" t="n">
+        <v>14</v>
+      </c>
+      <c r="U243" t="n">
+        <v>528</v>
+      </c>
+      <c r="V243" t="n">
+        <v>28</v>
+      </c>
+      <c r="W243" t="n">
+        <v>14</v>
+      </c>
+      <c r="X243" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -21783,31 +21883,81 @@
           <t>Empoli</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="inlineStr"/>
-      <c r="T244" t="inlineStr"/>
-      <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr"/>
-      <c r="W244" t="inlineStr"/>
-      <c r="X244" t="inlineStr"/>
-      <c r="Y244" t="inlineStr"/>
-      <c r="Z244" t="inlineStr"/>
-      <c r="AA244" t="inlineStr"/>
-      <c r="AB244" t="inlineStr"/>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>47</v>
+      </c>
+      <c r="G244" t="n">
+        <v>467</v>
+      </c>
+      <c r="H244" t="n">
+        <v>376</v>
+      </c>
+      <c r="I244" t="n">
+        <v>17</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>16</v>
+      </c>
+      <c r="L244" t="n">
+        <v>6</v>
+      </c>
+      <c r="M244" t="n">
+        <v>3</v>
+      </c>
+      <c r="N244" t="n">
+        <v>22</v>
+      </c>
+      <c r="O244" t="n">
+        <v>2</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>2</v>
+      </c>
+      <c r="R244" t="n">
+        <v>11</v>
+      </c>
+      <c r="S244" t="n">
+        <v>3</v>
+      </c>
+      <c r="T244" t="n">
+        <v>14</v>
+      </c>
+      <c r="U244" t="n">
+        <v>587</v>
+      </c>
+      <c r="V244" t="n">
+        <v>34</v>
+      </c>
+      <c r="W244" t="n">
+        <v>3</v>
+      </c>
+      <c r="X244" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -21821,31 +21971,81 @@
           <t>Sassuolo</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="inlineStr"/>
-      <c r="T245" t="inlineStr"/>
-      <c r="U245" t="inlineStr"/>
-      <c r="V245" t="inlineStr"/>
-      <c r="W245" t="inlineStr"/>
-      <c r="X245" t="inlineStr"/>
-      <c r="Y245" t="inlineStr"/>
-      <c r="Z245" t="inlineStr"/>
-      <c r="AA245" t="inlineStr"/>
-      <c r="AB245" t="inlineStr"/>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>53</v>
+      </c>
+      <c r="G245" t="n">
+        <v>524</v>
+      </c>
+      <c r="H245" t="n">
+        <v>431</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10</v>
+      </c>
+      <c r="J245" t="n">
+        <v>3</v>
+      </c>
+      <c r="K245" t="n">
+        <v>7</v>
+      </c>
+      <c r="L245" t="n">
+        <v>30</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>12</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="n">
+        <v>11</v>
+      </c>
+      <c r="S245" t="n">
+        <v>6</v>
+      </c>
+      <c r="T245" t="n">
+        <v>26</v>
+      </c>
+      <c r="U245" t="n">
+        <v>640</v>
+      </c>
+      <c r="V245" t="n">
+        <v>18</v>
+      </c>
+      <c r="W245" t="n">
+        <v>2</v>
+      </c>
+      <c r="X245" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -21859,31 +22059,81 @@
           <t>Salernitana</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="inlineStr"/>
-      <c r="T246" t="inlineStr"/>
-      <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr"/>
-      <c r="W246" t="inlineStr"/>
-      <c r="X246" t="inlineStr"/>
-      <c r="Y246" t="inlineStr"/>
-      <c r="Z246" t="inlineStr"/>
-      <c r="AA246" t="inlineStr"/>
-      <c r="AB246" t="inlineStr"/>
+      <c r="D246" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>51</v>
+      </c>
+      <c r="G246" t="n">
+        <v>465</v>
+      </c>
+      <c r="H246" t="n">
+        <v>371</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2</v>
+      </c>
+      <c r="K246" t="n">
+        <v>8</v>
+      </c>
+      <c r="L246" t="n">
+        <v>20</v>
+      </c>
+      <c r="M246" t="n">
+        <v>4</v>
+      </c>
+      <c r="N246" t="n">
+        <v>24</v>
+      </c>
+      <c r="O246" t="n">
+        <v>2</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>2</v>
+      </c>
+      <c r="R246" t="n">
+        <v>14</v>
+      </c>
+      <c r="S246" t="n">
+        <v>2</v>
+      </c>
+      <c r="T246" t="n">
+        <v>9</v>
+      </c>
+      <c r="U246" t="n">
+        <v>568</v>
+      </c>
+      <c r="V246" t="n">
+        <v>6</v>
+      </c>
+      <c r="W246" t="n">
+        <v>5</v>
+      </c>
+      <c r="X246" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -21897,31 +22147,81 @@
           <t>Cremonese</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="inlineStr"/>
-      <c r="T247" t="inlineStr"/>
-      <c r="U247" t="inlineStr"/>
-      <c r="V247" t="inlineStr"/>
-      <c r="W247" t="inlineStr"/>
-      <c r="X247" t="inlineStr"/>
-      <c r="Y247" t="inlineStr"/>
-      <c r="Z247" t="inlineStr"/>
-      <c r="AA247" t="inlineStr"/>
-      <c r="AB247" t="inlineStr"/>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>49</v>
+      </c>
+      <c r="G247" t="n">
+        <v>447</v>
+      </c>
+      <c r="H247" t="n">
+        <v>332</v>
+      </c>
+      <c r="I247" t="n">
+        <v>11</v>
+      </c>
+      <c r="J247" t="n">
+        <v>4</v>
+      </c>
+      <c r="K247" t="n">
+        <v>7</v>
+      </c>
+      <c r="L247" t="n">
+        <v>36</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>16</v>
+      </c>
+      <c r="O247" t="n">
+        <v>2</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>2</v>
+      </c>
+      <c r="R247" t="n">
+        <v>10</v>
+      </c>
+      <c r="S247" t="n">
+        <v>2</v>
+      </c>
+      <c r="T247" t="n">
+        <v>16</v>
+      </c>
+      <c r="U247" t="n">
+        <v>539</v>
+      </c>
+      <c r="V247" t="n">
+        <v>25</v>
+      </c>
+      <c r="W247" t="n">
+        <v>5</v>
+      </c>
+      <c r="X247" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -21935,31 +22235,81 @@
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="inlineStr"/>
-      <c r="T248" t="inlineStr"/>
-      <c r="U248" t="inlineStr"/>
-      <c r="V248" t="inlineStr"/>
-      <c r="W248" t="inlineStr"/>
-      <c r="X248" t="inlineStr"/>
-      <c r="Y248" t="inlineStr"/>
-      <c r="Z248" t="inlineStr"/>
-      <c r="AA248" t="inlineStr"/>
-      <c r="AB248" t="inlineStr"/>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>47</v>
+      </c>
+      <c r="G248" t="n">
+        <v>511</v>
+      </c>
+      <c r="H248" t="n">
+        <v>399</v>
+      </c>
+      <c r="I248" t="n">
+        <v>15</v>
+      </c>
+      <c r="J248" t="n">
+        <v>3</v>
+      </c>
+      <c r="K248" t="n">
+        <v>12</v>
+      </c>
+      <c r="L248" t="n">
+        <v>20</v>
+      </c>
+      <c r="M248" t="n">
+        <v>5</v>
+      </c>
+      <c r="N248" t="n">
+        <v>7</v>
+      </c>
+      <c r="O248" t="n">
+        <v>5</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>5</v>
+      </c>
+      <c r="R248" t="n">
+        <v>10</v>
+      </c>
+      <c r="S248" t="n">
+        <v>5</v>
+      </c>
+      <c r="T248" t="n">
+        <v>16</v>
+      </c>
+      <c r="U248" t="n">
+        <v>617</v>
+      </c>
+      <c r="V248" t="n">
+        <v>22</v>
+      </c>
+      <c r="W248" t="n">
+        <v>11</v>
+      </c>
+      <c r="X248" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -21973,31 +22323,81 @@
           <t>Napoli</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr"/>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="inlineStr"/>
-      <c r="T249" t="inlineStr"/>
-      <c r="U249" t="inlineStr"/>
-      <c r="V249" t="inlineStr"/>
-      <c r="W249" t="inlineStr"/>
-      <c r="X249" t="inlineStr"/>
-      <c r="Y249" t="inlineStr"/>
-      <c r="Z249" t="inlineStr"/>
-      <c r="AA249" t="inlineStr"/>
-      <c r="AB249" t="inlineStr"/>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>53</v>
+      </c>
+      <c r="G249" t="n">
+        <v>583</v>
+      </c>
+      <c r="H249" t="n">
+        <v>476</v>
+      </c>
+      <c r="I249" t="n">
+        <v>7</v>
+      </c>
+      <c r="J249" t="n">
+        <v>5</v>
+      </c>
+      <c r="K249" t="n">
+        <v>2</v>
+      </c>
+      <c r="L249" t="n">
+        <v>71</v>
+      </c>
+      <c r="M249" t="n">
+        <v>3</v>
+      </c>
+      <c r="N249" t="n">
+        <v>19</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>1</v>
+      </c>
+      <c r="R249" t="n">
+        <v>9</v>
+      </c>
+      <c r="S249" t="n">
+        <v>2</v>
+      </c>
+      <c r="T249" t="n">
+        <v>9</v>
+      </c>
+      <c r="U249" t="n">
+        <v>688</v>
+      </c>
+      <c r="V249" t="n">
+        <v>12</v>
+      </c>
+      <c r="W249" t="n">
+        <v>4</v>
+      </c>
+      <c r="X249" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -22011,31 +22411,81 @@
           <t>Milan</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
-      <c r="N250" t="inlineStr"/>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="inlineStr"/>
-      <c r="T250" t="inlineStr"/>
-      <c r="U250" t="inlineStr"/>
-      <c r="V250" t="inlineStr"/>
-      <c r="W250" t="inlineStr"/>
-      <c r="X250" t="inlineStr"/>
-      <c r="Y250" t="inlineStr"/>
-      <c r="Z250" t="inlineStr"/>
-      <c r="AA250" t="inlineStr"/>
-      <c r="AB250" t="inlineStr"/>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>58</v>
+      </c>
+      <c r="G250" t="n">
+        <v>471</v>
+      </c>
+      <c r="H250" t="n">
+        <v>356</v>
+      </c>
+      <c r="I250" t="n">
+        <v>23</v>
+      </c>
+      <c r="J250" t="n">
+        <v>10</v>
+      </c>
+      <c r="K250" t="n">
+        <v>13</v>
+      </c>
+      <c r="L250" t="n">
+        <v>43</v>
+      </c>
+      <c r="M250" t="n">
+        <v>5</v>
+      </c>
+      <c r="N250" t="n">
+        <v>19</v>
+      </c>
+      <c r="O250" t="n">
+        <v>6</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>6</v>
+      </c>
+      <c r="R250" t="n">
+        <v>12</v>
+      </c>
+      <c r="S250" t="n">
+        <v>3</v>
+      </c>
+      <c r="T250" t="n">
+        <v>19</v>
+      </c>
+      <c r="U250" t="n">
+        <v>607</v>
+      </c>
+      <c r="V250" t="n">
+        <v>21</v>
+      </c>
+      <c r="W250" t="n">
+        <v>6</v>
+      </c>
+      <c r="X250" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -22049,31 +22499,81 @@
           <t>Spezia</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr"/>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="inlineStr"/>
-      <c r="T251" t="inlineStr"/>
-      <c r="U251" t="inlineStr"/>
-      <c r="V251" t="inlineStr"/>
-      <c r="W251" t="inlineStr"/>
-      <c r="X251" t="inlineStr"/>
-      <c r="Y251" t="inlineStr"/>
-      <c r="Z251" t="inlineStr"/>
-      <c r="AA251" t="inlineStr"/>
-      <c r="AB251" t="inlineStr"/>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>42</v>
+      </c>
+      <c r="G251" t="n">
+        <v>339</v>
+      </c>
+      <c r="H251" t="n">
+        <v>221</v>
+      </c>
+      <c r="I251" t="n">
+        <v>13</v>
+      </c>
+      <c r="J251" t="n">
+        <v>5</v>
+      </c>
+      <c r="K251" t="n">
+        <v>8</v>
+      </c>
+      <c r="L251" t="n">
+        <v>38</v>
+      </c>
+      <c r="M251" t="n">
+        <v>10</v>
+      </c>
+      <c r="N251" t="n">
+        <v>25</v>
+      </c>
+      <c r="O251" t="n">
+        <v>4</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>4</v>
+      </c>
+      <c r="R251" t="n">
+        <v>13</v>
+      </c>
+      <c r="S251" t="n">
+        <v>6</v>
+      </c>
+      <c r="T251" t="n">
+        <v>12</v>
+      </c>
+      <c r="U251" t="n">
+        <v>479</v>
+      </c>
+      <c r="V251" t="n">
+        <v>20</v>
+      </c>
+      <c r="W251" t="n">
+        <v>10</v>
+      </c>
+      <c r="X251" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -22087,31 +22587,81 @@
           <t>Bologna</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="inlineStr"/>
-      <c r="T252" t="inlineStr"/>
-      <c r="U252" t="inlineStr"/>
-      <c r="V252" t="inlineStr"/>
-      <c r="W252" t="inlineStr"/>
-      <c r="X252" t="inlineStr"/>
-      <c r="Y252" t="inlineStr"/>
-      <c r="Z252" t="inlineStr"/>
-      <c r="AA252" t="inlineStr"/>
-      <c r="AB252" t="inlineStr"/>
+      <c r="D252" t="n">
+        <v>2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>56</v>
+      </c>
+      <c r="G252" t="n">
+        <v>546</v>
+      </c>
+      <c r="H252" t="n">
+        <v>411</v>
+      </c>
+      <c r="I252" t="n">
+        <v>9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>5</v>
+      </c>
+      <c r="K252" t="n">
+        <v>4</v>
+      </c>
+      <c r="L252" t="n">
+        <v>56</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>9</v>
+      </c>
+      <c r="O252" t="n">
+        <v>3</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>3</v>
+      </c>
+      <c r="R252" t="n">
+        <v>14</v>
+      </c>
+      <c r="S252" t="n">
+        <v>3</v>
+      </c>
+      <c r="T252" t="n">
+        <v>12</v>
+      </c>
+      <c r="U252" t="n">
+        <v>618</v>
+      </c>
+      <c r="V252" t="n">
+        <v>14</v>
+      </c>
+      <c r="W252" t="n">
+        <v>7</v>
+      </c>
+      <c r="X252" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -22125,31 +22675,81 @@
           <t>Torino</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="inlineStr"/>
-      <c r="T253" t="inlineStr"/>
-      <c r="U253" t="inlineStr"/>
-      <c r="V253" t="inlineStr"/>
-      <c r="W253" t="inlineStr"/>
-      <c r="X253" t="inlineStr"/>
-      <c r="Y253" t="inlineStr"/>
-      <c r="Z253" t="inlineStr"/>
-      <c r="AA253" t="inlineStr"/>
-      <c r="AB253" t="inlineStr"/>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2</v>
+      </c>
+      <c r="F253" t="n">
+        <v>44</v>
+      </c>
+      <c r="G253" t="n">
+        <v>431</v>
+      </c>
+      <c r="H253" t="n">
+        <v>313</v>
+      </c>
+      <c r="I253" t="n">
+        <v>6</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>5</v>
+      </c>
+      <c r="L253" t="n">
+        <v>17</v>
+      </c>
+      <c r="M253" t="n">
+        <v>5</v>
+      </c>
+      <c r="N253" t="n">
+        <v>15</v>
+      </c>
+      <c r="O253" t="n">
+        <v>3</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>3</v>
+      </c>
+      <c r="R253" t="n">
+        <v>17</v>
+      </c>
+      <c r="S253" t="n">
+        <v>1</v>
+      </c>
+      <c r="T253" t="n">
+        <v>8</v>
+      </c>
+      <c r="U253" t="n">
+        <v>526</v>
+      </c>
+      <c r="V253" t="n">
+        <v>13</v>
+      </c>
+      <c r="W253" t="n">
+        <v>11</v>
+      </c>
+      <c r="X253" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -22163,31 +22763,81 @@
           <t>Monza</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
-      <c r="N254" t="inlineStr"/>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
-      <c r="S254" t="inlineStr"/>
-      <c r="T254" t="inlineStr"/>
-      <c r="U254" t="inlineStr"/>
-      <c r="V254" t="inlineStr"/>
-      <c r="W254" t="inlineStr"/>
-      <c r="X254" t="inlineStr"/>
-      <c r="Y254" t="inlineStr"/>
-      <c r="Z254" t="inlineStr"/>
-      <c r="AA254" t="inlineStr"/>
-      <c r="AB254" t="inlineStr"/>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>74</v>
+      </c>
+      <c r="G254" t="n">
+        <v>680</v>
+      </c>
+      <c r="H254" t="n">
+        <v>575</v>
+      </c>
+      <c r="I254" t="n">
+        <v>14</v>
+      </c>
+      <c r="J254" t="n">
+        <v>3</v>
+      </c>
+      <c r="K254" t="n">
+        <v>11</v>
+      </c>
+      <c r="L254" t="n">
+        <v>21</v>
+      </c>
+      <c r="M254" t="n">
+        <v>2</v>
+      </c>
+      <c r="N254" t="n">
+        <v>12</v>
+      </c>
+      <c r="O254" t="n">
+        <v>3</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>3</v>
+      </c>
+      <c r="R254" t="n">
+        <v>10</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5</v>
+      </c>
+      <c r="T254" t="n">
+        <v>21</v>
+      </c>
+      <c r="U254" t="n">
+        <v>782</v>
+      </c>
+      <c r="V254" t="n">
+        <v>23</v>
+      </c>
+      <c r="W254" t="n">
+        <v>3</v>
+      </c>
+      <c r="X254" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -22201,31 +22851,81 @@
           <t>Hellas Verona</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
-      <c r="N255" t="inlineStr"/>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr"/>
-      <c r="R255" t="inlineStr"/>
-      <c r="S255" t="inlineStr"/>
-      <c r="T255" t="inlineStr"/>
-      <c r="U255" t="inlineStr"/>
-      <c r="V255" t="inlineStr"/>
-      <c r="W255" t="inlineStr"/>
-      <c r="X255" t="inlineStr"/>
-      <c r="Y255" t="inlineStr"/>
-      <c r="Z255" t="inlineStr"/>
-      <c r="AA255" t="inlineStr"/>
-      <c r="AB255" t="inlineStr"/>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2</v>
+      </c>
+      <c r="F255" t="n">
+        <v>26</v>
+      </c>
+      <c r="G255" t="n">
+        <v>236</v>
+      </c>
+      <c r="H255" t="n">
+        <v>139</v>
+      </c>
+      <c r="I255" t="n">
+        <v>7</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>5</v>
+      </c>
+      <c r="L255" t="n">
+        <v>29</v>
+      </c>
+      <c r="M255" t="n">
+        <v>3</v>
+      </c>
+      <c r="N255" t="n">
+        <v>24</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1</v>
+      </c>
+      <c r="P255" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R255" t="n">
+        <v>10</v>
+      </c>
+      <c r="S255" t="n">
+        <v>2</v>
+      </c>
+      <c r="T255" t="n">
+        <v>11</v>
+      </c>
+      <c r="U255" t="n">
+        <v>342</v>
+      </c>
+      <c r="V255" t="n">
+        <v>8</v>
+      </c>
+      <c r="W255" t="n">
+        <v>15</v>
+      </c>
+      <c r="X255" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -22239,31 +22939,81 @@
           <t>Sampdoria</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="inlineStr"/>
-      <c r="T256" t="inlineStr"/>
-      <c r="U256" t="inlineStr"/>
-      <c r="V256" t="inlineStr"/>
-      <c r="W256" t="inlineStr"/>
-      <c r="X256" t="inlineStr"/>
-      <c r="Y256" t="inlineStr"/>
-      <c r="Z256" t="inlineStr"/>
-      <c r="AA256" t="inlineStr"/>
-      <c r="AB256" t="inlineStr"/>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2</v>
+      </c>
+      <c r="F256" t="n">
+        <v>49</v>
+      </c>
+      <c r="G256" t="n">
+        <v>465</v>
+      </c>
+      <c r="H256" t="n">
+        <v>352</v>
+      </c>
+      <c r="I256" t="n">
+        <v>14</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2</v>
+      </c>
+      <c r="K256" t="n">
+        <v>12</v>
+      </c>
+      <c r="L256" t="n">
+        <v>14</v>
+      </c>
+      <c r="M256" t="n">
+        <v>3</v>
+      </c>
+      <c r="N256" t="n">
+        <v>13</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>1</v>
+      </c>
+      <c r="R256" t="n">
+        <v>10</v>
+      </c>
+      <c r="S256" t="n">
+        <v>4</v>
+      </c>
+      <c r="T256" t="n">
+        <v>21</v>
+      </c>
+      <c r="U256" t="n">
+        <v>548</v>
+      </c>
+      <c r="V256" t="n">
+        <v>12</v>
+      </c>
+      <c r="W256" t="n">
+        <v>8</v>
+      </c>
+      <c r="X256" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -22277,31 +23027,81 @@
           <t>Fiorentina</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
-      <c r="N257" t="inlineStr"/>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="inlineStr"/>
-      <c r="T257" t="inlineStr"/>
-      <c r="U257" t="inlineStr"/>
-      <c r="V257" t="inlineStr"/>
-      <c r="W257" t="inlineStr"/>
-      <c r="X257" t="inlineStr"/>
-      <c r="Y257" t="inlineStr"/>
-      <c r="Z257" t="inlineStr"/>
-      <c r="AA257" t="inlineStr"/>
-      <c r="AB257" t="inlineStr"/>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>51</v>
+      </c>
+      <c r="G257" t="n">
+        <v>491</v>
+      </c>
+      <c r="H257" t="n">
+        <v>378</v>
+      </c>
+      <c r="I257" t="n">
+        <v>5</v>
+      </c>
+      <c r="J257" t="n">
+        <v>3</v>
+      </c>
+      <c r="K257" t="n">
+        <v>2</v>
+      </c>
+      <c r="L257" t="n">
+        <v>60</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2</v>
+      </c>
+      <c r="N257" t="n">
+        <v>19</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="n">
+        <v>18</v>
+      </c>
+      <c r="S257" t="n">
+        <v>4</v>
+      </c>
+      <c r="T257" t="n">
+        <v>13</v>
+      </c>
+      <c r="U257" t="n">
+        <v>588</v>
+      </c>
+      <c r="V257" t="n">
+        <v>18</v>
+      </c>
+      <c r="W257" t="n">
+        <v>9</v>
+      </c>
+      <c r="X257" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -22315,31 +23115,81 @@
           <t>Roma</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr"/>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="inlineStr"/>
-      <c r="N258" t="inlineStr"/>
-      <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="inlineStr"/>
-      <c r="S258" t="inlineStr"/>
-      <c r="T258" t="inlineStr"/>
-      <c r="U258" t="inlineStr"/>
-      <c r="V258" t="inlineStr"/>
-      <c r="W258" t="inlineStr"/>
-      <c r="X258" t="inlineStr"/>
-      <c r="Y258" t="inlineStr"/>
-      <c r="Z258" t="inlineStr"/>
-      <c r="AA258" t="inlineStr"/>
-      <c r="AB258" t="inlineStr"/>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>59</v>
+      </c>
+      <c r="G258" t="n">
+        <v>615</v>
+      </c>
+      <c r="H258" t="n">
+        <v>498</v>
+      </c>
+      <c r="I258" t="n">
+        <v>8</v>
+      </c>
+      <c r="J258" t="n">
+        <v>2</v>
+      </c>
+      <c r="K258" t="n">
+        <v>6</v>
+      </c>
+      <c r="L258" t="n">
+        <v>25</v>
+      </c>
+      <c r="M258" t="n">
+        <v>3</v>
+      </c>
+      <c r="N258" t="n">
+        <v>6</v>
+      </c>
+      <c r="O258" t="n">
+        <v>2</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>2</v>
+      </c>
+      <c r="R258" t="n">
+        <v>18</v>
+      </c>
+      <c r="S258" t="n">
+        <v>4</v>
+      </c>
+      <c r="T258" t="n">
+        <v>25</v>
+      </c>
+      <c r="U258" t="n">
+        <v>711</v>
+      </c>
+      <c r="V258" t="n">
+        <v>22</v>
+      </c>
+      <c r="W258" t="n">
+        <v>9</v>
+      </c>
+      <c r="X258" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -22353,31 +23203,81 @@
           <t>Lazio</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="inlineStr"/>
-      <c r="N259" t="inlineStr"/>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
-      <c r="Q259" t="inlineStr"/>
-      <c r="R259" t="inlineStr"/>
-      <c r="S259" t="inlineStr"/>
-      <c r="T259" t="inlineStr"/>
-      <c r="U259" t="inlineStr"/>
-      <c r="V259" t="inlineStr"/>
-      <c r="W259" t="inlineStr"/>
-      <c r="X259" t="inlineStr"/>
-      <c r="Y259" t="inlineStr"/>
-      <c r="Z259" t="inlineStr"/>
-      <c r="AA259" t="inlineStr"/>
-      <c r="AB259" t="inlineStr"/>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>41</v>
+      </c>
+      <c r="G259" t="n">
+        <v>419</v>
+      </c>
+      <c r="H259" t="n">
+        <v>315</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5</v>
+      </c>
+      <c r="J259" t="n">
+        <v>3</v>
+      </c>
+      <c r="K259" t="n">
+        <v>2</v>
+      </c>
+      <c r="L259" t="n">
+        <v>60</v>
+      </c>
+      <c r="M259" t="n">
+        <v>2</v>
+      </c>
+      <c r="N259" t="n">
+        <v>28</v>
+      </c>
+      <c r="O259" t="n">
+        <v>3</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>3</v>
+      </c>
+      <c r="R259" t="n">
+        <v>14</v>
+      </c>
+      <c r="S259" t="n">
+        <v>2</v>
+      </c>
+      <c r="T259" t="n">
+        <v>5</v>
+      </c>
+      <c r="U259" t="n">
+        <v>543</v>
+      </c>
+      <c r="V259" t="n">
+        <v>21</v>
+      </c>
+      <c r="W259" t="n">
+        <v>6</v>
+      </c>
+      <c r="X259" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -22391,31 +23291,81 @@
           <t>Juventus</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="inlineStr"/>
-      <c r="N260" t="inlineStr"/>
-      <c r="O260" t="inlineStr"/>
-      <c r="P260" t="inlineStr"/>
-      <c r="Q260" t="inlineStr"/>
-      <c r="R260" t="inlineStr"/>
-      <c r="S260" t="inlineStr"/>
-      <c r="T260" t="inlineStr"/>
-      <c r="U260" t="inlineStr"/>
-      <c r="V260" t="inlineStr"/>
-      <c r="W260" t="inlineStr"/>
-      <c r="X260" t="inlineStr"/>
-      <c r="Y260" t="inlineStr"/>
-      <c r="Z260" t="inlineStr"/>
-      <c r="AA260" t="inlineStr"/>
-      <c r="AB260" t="inlineStr"/>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>47</v>
+      </c>
+      <c r="G260" t="n">
+        <v>498</v>
+      </c>
+      <c r="H260" t="n">
+        <v>408</v>
+      </c>
+      <c r="I260" t="n">
+        <v>8</v>
+      </c>
+      <c r="J260" t="n">
+        <v>3</v>
+      </c>
+      <c r="K260" t="n">
+        <v>5</v>
+      </c>
+      <c r="L260" t="n">
+        <v>38</v>
+      </c>
+      <c r="M260" t="n">
+        <v>4</v>
+      </c>
+      <c r="N260" t="n">
+        <v>24</v>
+      </c>
+      <c r="O260" t="n">
+        <v>2</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>2</v>
+      </c>
+      <c r="R260" t="n">
+        <v>16</v>
+      </c>
+      <c r="S260" t="n">
+        <v>2</v>
+      </c>
+      <c r="T260" t="n">
+        <v>8</v>
+      </c>
+      <c r="U260" t="n">
+        <v>600</v>
+      </c>
+      <c r="V260" t="n">
+        <v>12</v>
+      </c>
+      <c r="W260" t="n">
+        <v>10</v>
+      </c>
+      <c r="X260" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -22429,31 +23379,81 @@
           <t>Inter</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr"/>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
-      <c r="N261" t="inlineStr"/>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
-      <c r="S261" t="inlineStr"/>
-      <c r="T261" t="inlineStr"/>
-      <c r="U261" t="inlineStr"/>
-      <c r="V261" t="inlineStr"/>
-      <c r="W261" t="inlineStr"/>
-      <c r="X261" t="inlineStr"/>
-      <c r="Y261" t="inlineStr"/>
-      <c r="Z261" t="inlineStr"/>
-      <c r="AA261" t="inlineStr"/>
-      <c r="AB261" t="inlineStr"/>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>53</v>
+      </c>
+      <c r="G261" t="n">
+        <v>572</v>
+      </c>
+      <c r="H261" t="n">
+        <v>472</v>
+      </c>
+      <c r="I261" t="n">
+        <v>14</v>
+      </c>
+      <c r="J261" t="n">
+        <v>4</v>
+      </c>
+      <c r="K261" t="n">
+        <v>10</v>
+      </c>
+      <c r="L261" t="n">
+        <v>29</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3</v>
+      </c>
+      <c r="N261" t="n">
+        <v>6</v>
+      </c>
+      <c r="O261" t="n">
+        <v>2</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>2</v>
+      </c>
+      <c r="R261" t="n">
+        <v>13</v>
+      </c>
+      <c r="S261" t="n">
+        <v>8</v>
+      </c>
+      <c r="T261" t="n">
+        <v>31</v>
+      </c>
+      <c r="U261" t="n">
+        <v>656</v>
+      </c>
+      <c r="V261" t="n">
+        <v>10</v>
+      </c>
+      <c r="W261" t="n">
+        <v>10</v>
+      </c>
+      <c r="X261" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">

--- a/dfs/df_sum.xlsx
+++ b/dfs/df_sum.xlsx
@@ -23325,13 +23325,13 @@
         <v>24</v>
       </c>
       <c r="O260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P260" t="n">
         <v>0</v>
       </c>
       <c r="Q260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R260" t="n">
         <v>16</v>
@@ -23413,13 +23413,13 @@
         <v>6</v>
       </c>
       <c r="O261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P261" t="n">
         <v>0</v>
       </c>
       <c r="Q261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R261" t="n">
         <v>13</v>
@@ -23467,31 +23467,81 @@
           <t>Napoli</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr"/>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
-      <c r="N262" t="inlineStr"/>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
-      <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="inlineStr"/>
-      <c r="S262" t="inlineStr"/>
-      <c r="T262" t="inlineStr"/>
-      <c r="U262" t="inlineStr"/>
-      <c r="V262" t="inlineStr"/>
-      <c r="W262" t="inlineStr"/>
-      <c r="X262" t="inlineStr"/>
-      <c r="Y262" t="inlineStr"/>
-      <c r="Z262" t="inlineStr"/>
-      <c r="AA262" t="inlineStr"/>
-      <c r="AB262" t="inlineStr"/>
+      <c r="D262" t="n">
+        <v>2</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>74</v>
+      </c>
+      <c r="G262" t="n">
+        <v>749</v>
+      </c>
+      <c r="H262" t="n">
+        <v>644</v>
+      </c>
+      <c r="I262" t="n">
+        <v>17</v>
+      </c>
+      <c r="J262" t="n">
+        <v>3</v>
+      </c>
+      <c r="K262" t="n">
+        <v>14</v>
+      </c>
+      <c r="L262" t="n">
+        <v>18</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>3</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>1</v>
+      </c>
+      <c r="R262" t="n">
+        <v>12</v>
+      </c>
+      <c r="S262" t="n">
+        <v>5</v>
+      </c>
+      <c r="T262" t="n">
+        <v>36</v>
+      </c>
+      <c r="U262" t="n">
+        <v>825</v>
+      </c>
+      <c r="V262" t="n">
+        <v>10</v>
+      </c>
+      <c r="W262" t="n">
+        <v>6</v>
+      </c>
+      <c r="X262" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -23505,31 +23555,81 @@
           <t>Empoli</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr"/>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
-      <c r="S263" t="inlineStr"/>
-      <c r="T263" t="inlineStr"/>
-      <c r="U263" t="inlineStr"/>
-      <c r="V263" t="inlineStr"/>
-      <c r="W263" t="inlineStr"/>
-      <c r="X263" t="inlineStr"/>
-      <c r="Y263" t="inlineStr"/>
-      <c r="Z263" t="inlineStr"/>
-      <c r="AA263" t="inlineStr"/>
-      <c r="AB263" t="inlineStr"/>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>26</v>
+      </c>
+      <c r="G263" t="n">
+        <v>266</v>
+      </c>
+      <c r="H263" t="n">
+        <v>182</v>
+      </c>
+      <c r="I263" t="n">
+        <v>6</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>5</v>
+      </c>
+      <c r="L263" t="n">
+        <v>17</v>
+      </c>
+      <c r="M263" t="n">
+        <v>3</v>
+      </c>
+      <c r="N263" t="n">
+        <v>30</v>
+      </c>
+      <c r="O263" t="n">
+        <v>6</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>6</v>
+      </c>
+      <c r="R263" t="n">
+        <v>16</v>
+      </c>
+      <c r="S263" t="n">
+        <v>0</v>
+      </c>
+      <c r="T263" t="n">
+        <v>2</v>
+      </c>
+      <c r="U263" t="n">
+        <v>379</v>
+      </c>
+      <c r="V263" t="n">
+        <v>16</v>
+      </c>
+      <c r="W263" t="n">
+        <v>7</v>
+      </c>
+      <c r="X263" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -23543,31 +23643,81 @@
           <t>Spezia</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="inlineStr"/>
-      <c r="T264" t="inlineStr"/>
-      <c r="U264" t="inlineStr"/>
-      <c r="V264" t="inlineStr"/>
-      <c r="W264" t="inlineStr"/>
-      <c r="X264" t="inlineStr"/>
-      <c r="Y264" t="inlineStr"/>
-      <c r="Z264" t="inlineStr"/>
-      <c r="AA264" t="inlineStr"/>
-      <c r="AB264" t="inlineStr"/>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>49</v>
+      </c>
+      <c r="G264" t="n">
+        <v>469</v>
+      </c>
+      <c r="H264" t="n">
+        <v>342</v>
+      </c>
+      <c r="I264" t="n">
+        <v>21</v>
+      </c>
+      <c r="J264" t="n">
+        <v>6</v>
+      </c>
+      <c r="K264" t="n">
+        <v>15</v>
+      </c>
+      <c r="L264" t="n">
+        <v>29</v>
+      </c>
+      <c r="M264" t="n">
+        <v>2</v>
+      </c>
+      <c r="N264" t="n">
+        <v>17</v>
+      </c>
+      <c r="O264" t="n">
+        <v>3</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>3</v>
+      </c>
+      <c r="R264" t="n">
+        <v>12</v>
+      </c>
+      <c r="S264" t="n">
+        <v>9</v>
+      </c>
+      <c r="T264" t="n">
+        <v>25</v>
+      </c>
+      <c r="U264" t="n">
+        <v>583</v>
+      </c>
+      <c r="V264" t="n">
+        <v>25</v>
+      </c>
+      <c r="W264" t="n">
+        <v>5</v>
+      </c>
+      <c r="X264" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -23581,31 +23731,81 @@
           <t>Udinese</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr"/>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
-      <c r="N265" t="inlineStr"/>
-      <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr"/>
-      <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
-      <c r="S265" t="inlineStr"/>
-      <c r="T265" t="inlineStr"/>
-      <c r="U265" t="inlineStr"/>
-      <c r="V265" t="inlineStr"/>
-      <c r="W265" t="inlineStr"/>
-      <c r="X265" t="inlineStr"/>
-      <c r="Y265" t="inlineStr"/>
-      <c r="Z265" t="inlineStr"/>
-      <c r="AA265" t="inlineStr"/>
-      <c r="AB265" t="inlineStr"/>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>51</v>
+      </c>
+      <c r="G265" t="n">
+        <v>480</v>
+      </c>
+      <c r="H265" t="n">
+        <v>383</v>
+      </c>
+      <c r="I265" t="n">
+        <v>10</v>
+      </c>
+      <c r="J265" t="n">
+        <v>2</v>
+      </c>
+      <c r="K265" t="n">
+        <v>8</v>
+      </c>
+      <c r="L265" t="n">
+        <v>20</v>
+      </c>
+      <c r="M265" t="n">
+        <v>6</v>
+      </c>
+      <c r="N265" t="n">
+        <v>35</v>
+      </c>
+      <c r="O265" t="n">
+        <v>3</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>3</v>
+      </c>
+      <c r="R265" t="n">
+        <v>12</v>
+      </c>
+      <c r="S265" t="n">
+        <v>0</v>
+      </c>
+      <c r="T265" t="n">
+        <v>9</v>
+      </c>
+      <c r="U265" t="n">
+        <v>614</v>
+      </c>
+      <c r="V265" t="n">
+        <v>13</v>
+      </c>
+      <c r="W265" t="n">
+        <v>7</v>
+      </c>
+      <c r="X265" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -23619,31 +23819,81 @@
           <t>Cremonese</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr"/>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="inlineStr"/>
-      <c r="T266" t="inlineStr"/>
-      <c r="U266" t="inlineStr"/>
-      <c r="V266" t="inlineStr"/>
-      <c r="W266" t="inlineStr"/>
-      <c r="X266" t="inlineStr"/>
-      <c r="Y266" t="inlineStr"/>
-      <c r="Z266" t="inlineStr"/>
-      <c r="AA266" t="inlineStr"/>
-      <c r="AB266" t="inlineStr"/>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>29</v>
+      </c>
+      <c r="G266" t="n">
+        <v>272</v>
+      </c>
+      <c r="H266" t="n">
+        <v>167</v>
+      </c>
+      <c r="I266" t="n">
+        <v>6</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>5</v>
+      </c>
+      <c r="L266" t="n">
+        <v>17</v>
+      </c>
+      <c r="M266" t="n">
+        <v>5</v>
+      </c>
+      <c r="N266" t="n">
+        <v>31</v>
+      </c>
+      <c r="O266" t="n">
+        <v>4</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>4</v>
+      </c>
+      <c r="R266" t="n">
+        <v>16</v>
+      </c>
+      <c r="S266" t="n">
+        <v>2</v>
+      </c>
+      <c r="T266" t="n">
+        <v>10</v>
+      </c>
+      <c r="U266" t="n">
+        <v>388</v>
+      </c>
+      <c r="V266" t="n">
+        <v>22</v>
+      </c>
+      <c r="W266" t="n">
+        <v>5</v>
+      </c>
+      <c r="X266" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -23657,31 +23907,81 @@
           <t>Milan</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
-      <c r="N267" t="inlineStr"/>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr"/>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="inlineStr"/>
-      <c r="T267" t="inlineStr"/>
-      <c r="U267" t="inlineStr"/>
-      <c r="V267" t="inlineStr"/>
-      <c r="W267" t="inlineStr"/>
-      <c r="X267" t="inlineStr"/>
-      <c r="Y267" t="inlineStr"/>
-      <c r="Z267" t="inlineStr"/>
-      <c r="AA267" t="inlineStr"/>
-      <c r="AB267" t="inlineStr"/>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>71</v>
+      </c>
+      <c r="G267" t="n">
+        <v>682</v>
+      </c>
+      <c r="H267" t="n">
+        <v>573</v>
+      </c>
+      <c r="I267" t="n">
+        <v>16</v>
+      </c>
+      <c r="J267" t="n">
+        <v>5</v>
+      </c>
+      <c r="K267" t="n">
+        <v>11</v>
+      </c>
+      <c r="L267" t="n">
+        <v>31</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="n">
+        <v>15</v>
+      </c>
+      <c r="O267" t="n">
+        <v>3</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>3</v>
+      </c>
+      <c r="R267" t="n">
+        <v>10</v>
+      </c>
+      <c r="S267" t="n">
+        <v>4</v>
+      </c>
+      <c r="T267" t="n">
+        <v>24</v>
+      </c>
+      <c r="U267" t="n">
+        <v>779</v>
+      </c>
+      <c r="V267" t="n">
+        <v>16</v>
+      </c>
+      <c r="W267" t="n">
+        <v>9</v>
+      </c>
+      <c r="X267" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -23695,31 +23995,81 @@
           <t>Lecce</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="inlineStr"/>
-      <c r="N268" t="inlineStr"/>
-      <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr"/>
-      <c r="Q268" t="inlineStr"/>
-      <c r="R268" t="inlineStr"/>
-      <c r="S268" t="inlineStr"/>
-      <c r="T268" t="inlineStr"/>
-      <c r="U268" t="inlineStr"/>
-      <c r="V268" t="inlineStr"/>
-      <c r="W268" t="inlineStr"/>
-      <c r="X268" t="inlineStr"/>
-      <c r="Y268" t="inlineStr"/>
-      <c r="Z268" t="inlineStr"/>
-      <c r="AA268" t="inlineStr"/>
-      <c r="AB268" t="inlineStr"/>
+      <c r="D268" t="n">
+        <v>2</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>39</v>
+      </c>
+      <c r="G268" t="n">
+        <v>372</v>
+      </c>
+      <c r="H268" t="n">
+        <v>238</v>
+      </c>
+      <c r="I268" t="n">
+        <v>15</v>
+      </c>
+      <c r="J268" t="n">
+        <v>3</v>
+      </c>
+      <c r="K268" t="n">
+        <v>12</v>
+      </c>
+      <c r="L268" t="n">
+        <v>20</v>
+      </c>
+      <c r="M268" t="n">
+        <v>4</v>
+      </c>
+      <c r="N268" t="n">
+        <v>26</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>1</v>
+      </c>
+      <c r="R268" t="n">
+        <v>11</v>
+      </c>
+      <c r="S268" t="n">
+        <v>4</v>
+      </c>
+      <c r="T268" t="n">
+        <v>17</v>
+      </c>
+      <c r="U268" t="n">
+        <v>520</v>
+      </c>
+      <c r="V268" t="n">
+        <v>23</v>
+      </c>
+      <c r="W268" t="n">
+        <v>12</v>
+      </c>
+      <c r="X268" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -23733,31 +24083,81 @@
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr"/>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
-      <c r="N269" t="inlineStr"/>
-      <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr"/>
-      <c r="Q269" t="inlineStr"/>
-      <c r="R269" t="inlineStr"/>
-      <c r="S269" t="inlineStr"/>
-      <c r="T269" t="inlineStr"/>
-      <c r="U269" t="inlineStr"/>
-      <c r="V269" t="inlineStr"/>
-      <c r="W269" t="inlineStr"/>
-      <c r="X269" t="inlineStr"/>
-      <c r="Y269" t="inlineStr"/>
-      <c r="Z269" t="inlineStr"/>
-      <c r="AA269" t="inlineStr"/>
-      <c r="AB269" t="inlineStr"/>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>61</v>
+      </c>
+      <c r="G269" t="n">
+        <v>579</v>
+      </c>
+      <c r="H269" t="n">
+        <v>436</v>
+      </c>
+      <c r="I269" t="n">
+        <v>12</v>
+      </c>
+      <c r="J269" t="n">
+        <v>4</v>
+      </c>
+      <c r="K269" t="n">
+        <v>8</v>
+      </c>
+      <c r="L269" t="n">
+        <v>33</v>
+      </c>
+      <c r="M269" t="n">
+        <v>3</v>
+      </c>
+      <c r="N269" t="n">
+        <v>15</v>
+      </c>
+      <c r="O269" t="n">
+        <v>2</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>2</v>
+      </c>
+      <c r="R269" t="n">
+        <v>12</v>
+      </c>
+      <c r="S269" t="n">
+        <v>3</v>
+      </c>
+      <c r="T269" t="n">
+        <v>17</v>
+      </c>
+      <c r="U269" t="n">
+        <v>707</v>
+      </c>
+      <c r="V269" t="n">
+        <v>21</v>
+      </c>
+      <c r="W269" t="n">
+        <v>13</v>
+      </c>
+      <c r="X269" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -23771,31 +24171,81 @@
           <t>Sassuolo</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="inlineStr"/>
-      <c r="N270" t="inlineStr"/>
-      <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr"/>
-      <c r="Q270" t="inlineStr"/>
-      <c r="R270" t="inlineStr"/>
-      <c r="S270" t="inlineStr"/>
-      <c r="T270" t="inlineStr"/>
-      <c r="U270" t="inlineStr"/>
-      <c r="V270" t="inlineStr"/>
-      <c r="W270" t="inlineStr"/>
-      <c r="X270" t="inlineStr"/>
-      <c r="Y270" t="inlineStr"/>
-      <c r="Z270" t="inlineStr"/>
-      <c r="AA270" t="inlineStr"/>
-      <c r="AB270" t="inlineStr"/>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>46</v>
+      </c>
+      <c r="G270" t="n">
+        <v>443</v>
+      </c>
+      <c r="H270" t="n">
+        <v>363</v>
+      </c>
+      <c r="I270" t="n">
+        <v>15</v>
+      </c>
+      <c r="J270" t="n">
+        <v>7</v>
+      </c>
+      <c r="K270" t="n">
+        <v>8</v>
+      </c>
+      <c r="L270" t="n">
+        <v>47</v>
+      </c>
+      <c r="M270" t="n">
+        <v>4</v>
+      </c>
+      <c r="N270" t="n">
+        <v>12</v>
+      </c>
+      <c r="O270" t="n">
+        <v>5</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>5</v>
+      </c>
+      <c r="R270" t="n">
+        <v>14</v>
+      </c>
+      <c r="S270" t="n">
+        <v>3</v>
+      </c>
+      <c r="T270" t="n">
+        <v>12</v>
+      </c>
+      <c r="U270" t="n">
+        <v>534</v>
+      </c>
+      <c r="V270" t="n">
+        <v>18</v>
+      </c>
+      <c r="W270" t="n">
+        <v>5</v>
+      </c>
+      <c r="X270" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -23809,31 +24259,81 @@
           <t>Roma</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="inlineStr"/>
-      <c r="N271" t="inlineStr"/>
-      <c r="O271" t="inlineStr"/>
-      <c r="P271" t="inlineStr"/>
-      <c r="Q271" t="inlineStr"/>
-      <c r="R271" t="inlineStr"/>
-      <c r="S271" t="inlineStr"/>
-      <c r="T271" t="inlineStr"/>
-      <c r="U271" t="inlineStr"/>
-      <c r="V271" t="inlineStr"/>
-      <c r="W271" t="inlineStr"/>
-      <c r="X271" t="inlineStr"/>
-      <c r="Y271" t="inlineStr"/>
-      <c r="Z271" t="inlineStr"/>
-      <c r="AA271" t="inlineStr"/>
-      <c r="AB271" t="inlineStr"/>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>54</v>
+      </c>
+      <c r="G271" t="n">
+        <v>517</v>
+      </c>
+      <c r="H271" t="n">
+        <v>434</v>
+      </c>
+      <c r="I271" t="n">
+        <v>11</v>
+      </c>
+      <c r="J271" t="n">
+        <v>4</v>
+      </c>
+      <c r="K271" t="n">
+        <v>7</v>
+      </c>
+      <c r="L271" t="n">
+        <v>36</v>
+      </c>
+      <c r="M271" t="n">
+        <v>7</v>
+      </c>
+      <c r="N271" t="n">
+        <v>5</v>
+      </c>
+      <c r="O271" t="n">
+        <v>3</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>3</v>
+      </c>
+      <c r="R271" t="n">
+        <v>13</v>
+      </c>
+      <c r="S271" t="n">
+        <v>2</v>
+      </c>
+      <c r="T271" t="n">
+        <v>17</v>
+      </c>
+      <c r="U271" t="n">
+        <v>608</v>
+      </c>
+      <c r="V271" t="n">
+        <v>31</v>
+      </c>
+      <c r="W271" t="n">
+        <v>11</v>
+      </c>
+      <c r="X271" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -23847,31 +24347,81 @@
           <t>Fiorentina</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="inlineStr"/>
-      <c r="N272" t="inlineStr"/>
-      <c r="O272" t="inlineStr"/>
-      <c r="P272" t="inlineStr"/>
-      <c r="Q272" t="inlineStr"/>
-      <c r="R272" t="inlineStr"/>
-      <c r="S272" t="inlineStr"/>
-      <c r="T272" t="inlineStr"/>
-      <c r="U272" t="inlineStr"/>
-      <c r="V272" t="inlineStr"/>
-      <c r="W272" t="inlineStr"/>
-      <c r="X272" t="inlineStr"/>
-      <c r="Y272" t="inlineStr"/>
-      <c r="Z272" t="inlineStr"/>
-      <c r="AA272" t="inlineStr"/>
-      <c r="AB272" t="inlineStr"/>
+      <c r="D272" t="n">
+        <v>2</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>58</v>
+      </c>
+      <c r="G272" t="n">
+        <v>606</v>
+      </c>
+      <c r="H272" t="n">
+        <v>510</v>
+      </c>
+      <c r="I272" t="n">
+        <v>18</v>
+      </c>
+      <c r="J272" t="n">
+        <v>7</v>
+      </c>
+      <c r="K272" t="n">
+        <v>11</v>
+      </c>
+      <c r="L272" t="n">
+        <v>39</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>8</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="n">
+        <v>10</v>
+      </c>
+      <c r="S272" t="n">
+        <v>4</v>
+      </c>
+      <c r="T272" t="n">
+        <v>13</v>
+      </c>
+      <c r="U272" t="n">
+        <v>702</v>
+      </c>
+      <c r="V272" t="n">
+        <v>15</v>
+      </c>
+      <c r="W272" t="n">
+        <v>5</v>
+      </c>
+      <c r="X272" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -23885,31 +24435,81 @@
           <t>Salernitana</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr"/>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="inlineStr"/>
-      <c r="N273" t="inlineStr"/>
-      <c r="O273" t="inlineStr"/>
-      <c r="P273" t="inlineStr"/>
-      <c r="Q273" t="inlineStr"/>
-      <c r="R273" t="inlineStr"/>
-      <c r="S273" t="inlineStr"/>
-      <c r="T273" t="inlineStr"/>
-      <c r="U273" t="inlineStr"/>
-      <c r="V273" t="inlineStr"/>
-      <c r="W273" t="inlineStr"/>
-      <c r="X273" t="inlineStr"/>
-      <c r="Y273" t="inlineStr"/>
-      <c r="Z273" t="inlineStr"/>
-      <c r="AA273" t="inlineStr"/>
-      <c r="AB273" t="inlineStr"/>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>42</v>
+      </c>
+      <c r="G273" t="n">
+        <v>438</v>
+      </c>
+      <c r="H273" t="n">
+        <v>328</v>
+      </c>
+      <c r="I273" t="n">
+        <v>4</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>3</v>
+      </c>
+      <c r="L273" t="n">
+        <v>25</v>
+      </c>
+      <c r="M273" t="n">
+        <v>7</v>
+      </c>
+      <c r="N273" t="n">
+        <v>16</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R273" t="n">
+        <v>11</v>
+      </c>
+      <c r="S273" t="n">
+        <v>3</v>
+      </c>
+      <c r="T273" t="n">
+        <v>13</v>
+      </c>
+      <c r="U273" t="n">
+        <v>535</v>
+      </c>
+      <c r="V273" t="n">
+        <v>17</v>
+      </c>
+      <c r="W273" t="n">
+        <v>10</v>
+      </c>
+      <c r="X273" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -23923,31 +24523,81 @@
           <t>Torino</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr"/>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="inlineStr"/>
-      <c r="N274" t="inlineStr"/>
-      <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr"/>
-      <c r="Q274" t="inlineStr"/>
-      <c r="R274" t="inlineStr"/>
-      <c r="S274" t="inlineStr"/>
-      <c r="T274" t="inlineStr"/>
-      <c r="U274" t="inlineStr"/>
-      <c r="V274" t="inlineStr"/>
-      <c r="W274" t="inlineStr"/>
-      <c r="X274" t="inlineStr"/>
-      <c r="Y274" t="inlineStr"/>
-      <c r="Z274" t="inlineStr"/>
-      <c r="AA274" t="inlineStr"/>
-      <c r="AB274" t="inlineStr"/>
+      <c r="D274" t="n">
+        <v>2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>51</v>
+      </c>
+      <c r="G274" t="n">
+        <v>482</v>
+      </c>
+      <c r="H274" t="n">
+        <v>366</v>
+      </c>
+      <c r="I274" t="n">
+        <v>8</v>
+      </c>
+      <c r="J274" t="n">
+        <v>5</v>
+      </c>
+      <c r="K274" t="n">
+        <v>3</v>
+      </c>
+      <c r="L274" t="n">
+        <v>63</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="n">
+        <v>22</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>1</v>
+      </c>
+      <c r="R274" t="n">
+        <v>14</v>
+      </c>
+      <c r="S274" t="n">
+        <v>4</v>
+      </c>
+      <c r="T274" t="n">
+        <v>11</v>
+      </c>
+      <c r="U274" t="n">
+        <v>584</v>
+      </c>
+      <c r="V274" t="n">
+        <v>15</v>
+      </c>
+      <c r="W274" t="n">
+        <v>12</v>
+      </c>
+      <c r="X274" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -23961,31 +24611,81 @@
           <t>Sampdoria</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="inlineStr"/>
-      <c r="N275" t="inlineStr"/>
-      <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr"/>
-      <c r="Q275" t="inlineStr"/>
-      <c r="R275" t="inlineStr"/>
-      <c r="S275" t="inlineStr"/>
-      <c r="T275" t="inlineStr"/>
-      <c r="U275" t="inlineStr"/>
-      <c r="V275" t="inlineStr"/>
-      <c r="W275" t="inlineStr"/>
-      <c r="X275" t="inlineStr"/>
-      <c r="Y275" t="inlineStr"/>
-      <c r="Z275" t="inlineStr"/>
-      <c r="AA275" t="inlineStr"/>
-      <c r="AB275" t="inlineStr"/>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>49</v>
+      </c>
+      <c r="G275" t="n">
+        <v>461</v>
+      </c>
+      <c r="H275" t="n">
+        <v>337</v>
+      </c>
+      <c r="I275" t="n">
+        <v>11</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>10</v>
+      </c>
+      <c r="L275" t="n">
+        <v>9</v>
+      </c>
+      <c r="M275" t="n">
+        <v>5</v>
+      </c>
+      <c r="N275" t="n">
+        <v>14</v>
+      </c>
+      <c r="O275" t="n">
+        <v>3</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>3</v>
+      </c>
+      <c r="R275" t="n">
+        <v>21</v>
+      </c>
+      <c r="S275" t="n">
+        <v>3</v>
+      </c>
+      <c r="T275" t="n">
+        <v>23</v>
+      </c>
+      <c r="U275" t="n">
+        <v>570</v>
+      </c>
+      <c r="V275" t="n">
+        <v>17</v>
+      </c>
+      <c r="W275" t="n">
+        <v>12</v>
+      </c>
+      <c r="X275" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -23999,31 +24699,81 @@
           <t>Inter</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="inlineStr"/>
-      <c r="N276" t="inlineStr"/>
-      <c r="O276" t="inlineStr"/>
-      <c r="P276" t="inlineStr"/>
-      <c r="Q276" t="inlineStr"/>
-      <c r="R276" t="inlineStr"/>
-      <c r="S276" t="inlineStr"/>
-      <c r="T276" t="inlineStr"/>
-      <c r="U276" t="inlineStr"/>
-      <c r="V276" t="inlineStr"/>
-      <c r="W276" t="inlineStr"/>
-      <c r="X276" t="inlineStr"/>
-      <c r="Y276" t="inlineStr"/>
-      <c r="Z276" t="inlineStr"/>
-      <c r="AA276" t="inlineStr"/>
-      <c r="AB276" t="inlineStr"/>
+      <c r="D276" t="n">
+        <v>6</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>57</v>
+      </c>
+      <c r="G276" t="n">
+        <v>576</v>
+      </c>
+      <c r="H276" t="n">
+        <v>491</v>
+      </c>
+      <c r="I276" t="n">
+        <v>12</v>
+      </c>
+      <c r="J276" t="n">
+        <v>6</v>
+      </c>
+      <c r="K276" t="n">
+        <v>6</v>
+      </c>
+      <c r="L276" t="n">
+        <v>50</v>
+      </c>
+      <c r="M276" t="n">
+        <v>4</v>
+      </c>
+      <c r="N276" t="n">
+        <v>15</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>1</v>
+      </c>
+      <c r="R276" t="n">
+        <v>10</v>
+      </c>
+      <c r="S276" t="n">
+        <v>4</v>
+      </c>
+      <c r="T276" t="n">
+        <v>15</v>
+      </c>
+      <c r="U276" t="n">
+        <v>655</v>
+      </c>
+      <c r="V276" t="n">
+        <v>8</v>
+      </c>
+      <c r="W276" t="n">
+        <v>5</v>
+      </c>
+      <c r="X276" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -24037,31 +24787,81 @@
           <t>Bologna</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="inlineStr"/>
-      <c r="N277" t="inlineStr"/>
-      <c r="O277" t="inlineStr"/>
-      <c r="P277" t="inlineStr"/>
-      <c r="Q277" t="inlineStr"/>
-      <c r="R277" t="inlineStr"/>
-      <c r="S277" t="inlineStr"/>
-      <c r="T277" t="inlineStr"/>
-      <c r="U277" t="inlineStr"/>
-      <c r="V277" t="inlineStr"/>
-      <c r="W277" t="inlineStr"/>
-      <c r="X277" t="inlineStr"/>
-      <c r="Y277" t="inlineStr"/>
-      <c r="Z277" t="inlineStr"/>
-      <c r="AA277" t="inlineStr"/>
-      <c r="AB277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" t="n">
+        <v>6</v>
+      </c>
+      <c r="F277" t="n">
+        <v>43</v>
+      </c>
+      <c r="G277" t="n">
+        <v>434</v>
+      </c>
+      <c r="H277" t="n">
+        <v>342</v>
+      </c>
+      <c r="I277" t="n">
+        <v>10</v>
+      </c>
+      <c r="J277" t="n">
+        <v>4</v>
+      </c>
+      <c r="K277" t="n">
+        <v>6</v>
+      </c>
+      <c r="L277" t="n">
+        <v>40</v>
+      </c>
+      <c r="M277" t="n">
+        <v>6</v>
+      </c>
+      <c r="N277" t="n">
+        <v>14</v>
+      </c>
+      <c r="O277" t="n">
+        <v>5</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>5</v>
+      </c>
+      <c r="R277" t="n">
+        <v>11</v>
+      </c>
+      <c r="S277" t="n">
+        <v>4</v>
+      </c>
+      <c r="T277" t="n">
+        <v>14</v>
+      </c>
+      <c r="U277" t="n">
+        <v>490</v>
+      </c>
+      <c r="V277" t="n">
+        <v>5</v>
+      </c>
+      <c r="W277" t="n">
+        <v>11</v>
+      </c>
+      <c r="X277" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -24075,31 +24875,81 @@
           <t>Hellas Verona</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="inlineStr"/>
-      <c r="O278" t="inlineStr"/>
-      <c r="P278" t="inlineStr"/>
-      <c r="Q278" t="inlineStr"/>
-      <c r="R278" t="inlineStr"/>
-      <c r="S278" t="inlineStr"/>
-      <c r="T278" t="inlineStr"/>
-      <c r="U278" t="inlineStr"/>
-      <c r="V278" t="inlineStr"/>
-      <c r="W278" t="inlineStr"/>
-      <c r="X278" t="inlineStr"/>
-      <c r="Y278" t="inlineStr"/>
-      <c r="Z278" t="inlineStr"/>
-      <c r="AA278" t="inlineStr"/>
-      <c r="AB278" t="inlineStr"/>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>43</v>
+      </c>
+      <c r="G278" t="n">
+        <v>364</v>
+      </c>
+      <c r="H278" t="n">
+        <v>267</v>
+      </c>
+      <c r="I278" t="n">
+        <v>15</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2</v>
+      </c>
+      <c r="K278" t="n">
+        <v>13</v>
+      </c>
+      <c r="L278" t="n">
+        <v>13</v>
+      </c>
+      <c r="M278" t="n">
+        <v>3</v>
+      </c>
+      <c r="N278" t="n">
+        <v>15</v>
+      </c>
+      <c r="O278" t="n">
+        <v>3</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>3</v>
+      </c>
+      <c r="R278" t="n">
+        <v>14</v>
+      </c>
+      <c r="S278" t="n">
+        <v>5</v>
+      </c>
+      <c r="T278" t="n">
+        <v>26</v>
+      </c>
+      <c r="U278" t="n">
+        <v>468</v>
+      </c>
+      <c r="V278" t="n">
+        <v>15</v>
+      </c>
+      <c r="W278" t="n">
+        <v>7</v>
+      </c>
+      <c r="X278" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -24113,31 +24963,81 @@
           <t>Juventus</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="inlineStr"/>
-      <c r="N279" t="inlineStr"/>
-      <c r="O279" t="inlineStr"/>
-      <c r="P279" t="inlineStr"/>
-      <c r="Q279" t="inlineStr"/>
-      <c r="R279" t="inlineStr"/>
-      <c r="S279" t="inlineStr"/>
-      <c r="T279" t="inlineStr"/>
-      <c r="U279" t="inlineStr"/>
-      <c r="V279" t="inlineStr"/>
-      <c r="W279" t="inlineStr"/>
-      <c r="X279" t="inlineStr"/>
-      <c r="Y279" t="inlineStr"/>
-      <c r="Z279" t="inlineStr"/>
-      <c r="AA279" t="inlineStr"/>
-      <c r="AB279" t="inlineStr"/>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>57</v>
+      </c>
+      <c r="G279" t="n">
+        <v>476</v>
+      </c>
+      <c r="H279" t="n">
+        <v>373</v>
+      </c>
+      <c r="I279" t="n">
+        <v>11</v>
+      </c>
+      <c r="J279" t="n">
+        <v>3</v>
+      </c>
+      <c r="K279" t="n">
+        <v>8</v>
+      </c>
+      <c r="L279" t="n">
+        <v>27</v>
+      </c>
+      <c r="M279" t="n">
+        <v>2</v>
+      </c>
+      <c r="N279" t="n">
+        <v>24</v>
+      </c>
+      <c r="O279" t="n">
+        <v>2</v>
+      </c>
+      <c r="P279" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>13</v>
+      </c>
+      <c r="S279" t="n">
+        <v>4</v>
+      </c>
+      <c r="T279" t="n">
+        <v>18</v>
+      </c>
+      <c r="U279" t="n">
+        <v>582</v>
+      </c>
+      <c r="V279" t="n">
+        <v>18</v>
+      </c>
+      <c r="W279" t="n">
+        <v>9</v>
+      </c>
+      <c r="X279" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -24151,31 +25051,81 @@
           <t>Lazio</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="inlineStr"/>
-      <c r="N280" t="inlineStr"/>
-      <c r="O280" t="inlineStr"/>
-      <c r="P280" t="inlineStr"/>
-      <c r="Q280" t="inlineStr"/>
-      <c r="R280" t="inlineStr"/>
-      <c r="S280" t="inlineStr"/>
-      <c r="T280" t="inlineStr"/>
-      <c r="U280" t="inlineStr"/>
-      <c r="V280" t="inlineStr"/>
-      <c r="W280" t="inlineStr"/>
-      <c r="X280" t="inlineStr"/>
-      <c r="Y280" t="inlineStr"/>
-      <c r="Z280" t="inlineStr"/>
-      <c r="AA280" t="inlineStr"/>
-      <c r="AB280" t="inlineStr"/>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>47</v>
+      </c>
+      <c r="G280" t="n">
+        <v>527</v>
+      </c>
+      <c r="H280" t="n">
+        <v>470</v>
+      </c>
+      <c r="I280" t="n">
+        <v>12</v>
+      </c>
+      <c r="J280" t="n">
+        <v>4</v>
+      </c>
+      <c r="K280" t="n">
+        <v>8</v>
+      </c>
+      <c r="L280" t="n">
+        <v>33</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>14</v>
+      </c>
+      <c r="O280" t="n">
+        <v>2</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>2</v>
+      </c>
+      <c r="R280" t="n">
+        <v>15</v>
+      </c>
+      <c r="S280" t="n">
+        <v>4</v>
+      </c>
+      <c r="T280" t="n">
+        <v>21</v>
+      </c>
+      <c r="U280" t="n">
+        <v>614</v>
+      </c>
+      <c r="V280" t="n">
+        <v>9</v>
+      </c>
+      <c r="W280" t="n">
+        <v>8</v>
+      </c>
+      <c r="X280" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -24189,31 +25139,81 @@
           <t>Monza</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="inlineStr"/>
-      <c r="N281" t="inlineStr"/>
-      <c r="O281" t="inlineStr"/>
-      <c r="P281" t="inlineStr"/>
-      <c r="Q281" t="inlineStr"/>
-      <c r="R281" t="inlineStr"/>
-      <c r="S281" t="inlineStr"/>
-      <c r="T281" t="inlineStr"/>
-      <c r="U281" t="inlineStr"/>
-      <c r="V281" t="inlineStr"/>
-      <c r="W281" t="inlineStr"/>
-      <c r="X281" t="inlineStr"/>
-      <c r="Y281" t="inlineStr"/>
-      <c r="Z281" t="inlineStr"/>
-      <c r="AA281" t="inlineStr"/>
-      <c r="AB281" t="inlineStr"/>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>53</v>
+      </c>
+      <c r="G281" t="n">
+        <v>606</v>
+      </c>
+      <c r="H281" t="n">
+        <v>537</v>
+      </c>
+      <c r="I281" t="n">
+        <v>8</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>8</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>4</v>
+      </c>
+      <c r="N281" t="n">
+        <v>16</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>1</v>
+      </c>
+      <c r="R281" t="n">
+        <v>14</v>
+      </c>
+      <c r="S281" t="n">
+        <v>3</v>
+      </c>
+      <c r="T281" t="n">
+        <v>14</v>
+      </c>
+      <c r="U281" t="n">
+        <v>679</v>
+      </c>
+      <c r="V281" t="n">
+        <v>14</v>
+      </c>
+      <c r="W281" t="n">
+        <v>8</v>
+      </c>
+      <c r="X281" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
